--- a/CM_BIN/ReoGridPLTop.xlsx
+++ b/CM_BIN/ReoGridPLTop.xlsx
@@ -577,15 +577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,6 +649,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,9 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1062,21 +1060,21 @@
     </row>
     <row r="4" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -1264,158 +1262,158 @@
     </row>
     <row r="6" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="68" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="68"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="67" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="68" t="s">
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="67" t="s">
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="68" t="s">
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="67" t="s">
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="68" t="s">
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="57" t="s">
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="58" t="s">
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="BE6" s="58"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="56" t="s">
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="54" t="s">
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="55"/>
-      <c r="BP6" s="56" t="s">
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="52"/>
+      <c r="BP6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BQ6" s="56"/>
-      <c r="BR6" s="56"/>
-      <c r="BS6" s="56"/>
-      <c r="BT6" s="56"/>
-      <c r="BU6" s="56"/>
-      <c r="BV6" s="54" t="s">
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="55"/>
-      <c r="BY6" s="56" t="s">
+      <c r="BW6" s="51"/>
+      <c r="BX6" s="52"/>
+      <c r="BY6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="BZ6" s="56"/>
-      <c r="CA6" s="56"/>
-      <c r="CB6" s="56"/>
-      <c r="CC6" s="56"/>
-      <c r="CD6" s="56"/>
-      <c r="CE6" s="54" t="s">
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="CF6" s="54"/>
-      <c r="CG6" s="55"/>
-      <c r="CH6" s="56" t="s">
+      <c r="CF6" s="51"/>
+      <c r="CG6" s="52"/>
+      <c r="CH6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="56"/>
-      <c r="CJ6" s="56"/>
-      <c r="CK6" s="56"/>
-      <c r="CL6" s="56"/>
-      <c r="CM6" s="56"/>
-      <c r="CN6" s="54" t="s">
+      <c r="CI6" s="53"/>
+      <c r="CJ6" s="53"/>
+      <c r="CK6" s="53"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="53"/>
+      <c r="CN6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="CO6" s="54"/>
-      <c r="CP6" s="55"/>
-      <c r="CQ6" s="56" t="s">
+      <c r="CO6" s="51"/>
+      <c r="CP6" s="52"/>
+      <c r="CQ6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="CR6" s="56"/>
-      <c r="CS6" s="56"/>
-      <c r="CT6" s="56"/>
-      <c r="CU6" s="56"/>
-      <c r="CV6" s="56"/>
-      <c r="CW6" s="54" t="s">
+      <c r="CR6" s="53"/>
+      <c r="CS6" s="53"/>
+      <c r="CT6" s="53"/>
+      <c r="CU6" s="53"/>
+      <c r="CV6" s="53"/>
+      <c r="CW6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="CX6" s="54"/>
-      <c r="CY6" s="55"/>
+      <c r="CX6" s="51"/>
+      <c r="CY6" s="52"/>
       <c r="CZ6" s="8"/>
     </row>
     <row r="7" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="28" t="s">
         <v>14</v>
       </c>
@@ -1426,19 +1424,19 @@
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="24">
+      <c r="N7" s="67">
         <v>10000</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="51">
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="48">
         <v>1.234</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="53"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="50"/>
       <c r="W7" s="24">
         <v>123456789</v>
       </c>
@@ -1447,11 +1445,11 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="51">
+      <c r="AC7" s="48">
         <v>1.234</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="50"/>
       <c r="AF7" s="24">
         <v>123456789</v>
       </c>
@@ -1460,11 +1458,11 @@
       <c r="AI7" s="24"/>
       <c r="AJ7" s="24"/>
       <c r="AK7" s="24"/>
-      <c r="AL7" s="51">
+      <c r="AL7" s="48">
         <v>1.234</v>
       </c>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="53"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="50"/>
       <c r="AO7" s="24">
         <v>123456789</v>
       </c>
@@ -1473,11 +1471,11 @@
       <c r="AR7" s="24"/>
       <c r="AS7" s="24"/>
       <c r="AT7" s="24"/>
-      <c r="AU7" s="51">
+      <c r="AU7" s="48">
         <v>1.234</v>
       </c>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="53"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="50"/>
       <c r="AX7" s="24">
         <v>123456789</v>
       </c>
@@ -1486,11 +1484,11 @@
       <c r="BA7" s="24"/>
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
-      <c r="BD7" s="51">
+      <c r="BD7" s="48">
         <v>1.234</v>
       </c>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="53"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="50"/>
       <c r="BG7" s="24">
         <v>123456789</v>
       </c>
@@ -1499,11 +1497,11 @@
       <c r="BJ7" s="24"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="51">
+      <c r="BM7" s="48">
         <v>1.234</v>
       </c>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="53"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="50"/>
       <c r="BP7" s="24">
         <v>123456789</v>
       </c>
@@ -1512,11 +1510,11 @@
       <c r="BS7" s="24"/>
       <c r="BT7" s="24"/>
       <c r="BU7" s="24"/>
-      <c r="BV7" s="51">
+      <c r="BV7" s="48">
         <v>1.234</v>
       </c>
-      <c r="BW7" s="52"/>
-      <c r="BX7" s="53"/>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="50"/>
       <c r="BY7" s="24">
         <v>123456789</v>
       </c>
@@ -1525,11 +1523,11 @@
       <c r="CB7" s="24"/>
       <c r="CC7" s="24"/>
       <c r="CD7" s="24"/>
-      <c r="CE7" s="51">
+      <c r="CE7" s="48">
         <v>1.234</v>
       </c>
-      <c r="CF7" s="52"/>
-      <c r="CG7" s="53"/>
+      <c r="CF7" s="49"/>
+      <c r="CG7" s="50"/>
       <c r="CH7" s="24">
         <v>123456789</v>
       </c>
@@ -1538,11 +1536,11 @@
       <c r="CK7" s="24"/>
       <c r="CL7" s="24"/>
       <c r="CM7" s="24"/>
-      <c r="CN7" s="51">
+      <c r="CN7" s="48">
         <v>1.234</v>
       </c>
-      <c r="CO7" s="52"/>
-      <c r="CP7" s="53"/>
+      <c r="CO7" s="49"/>
+      <c r="CP7" s="50"/>
       <c r="CQ7" s="24">
         <v>123456789</v>
       </c>
@@ -1551,20 +1549,20 @@
       <c r="CT7" s="24"/>
       <c r="CU7" s="24"/>
       <c r="CV7" s="24"/>
-      <c r="CW7" s="51">
+      <c r="CW7" s="48">
         <v>1.234</v>
       </c>
-      <c r="CX7" s="52"/>
-      <c r="CY7" s="53"/>
+      <c r="CX7" s="49"/>
+      <c r="CY7" s="50"/>
       <c r="CZ7" s="8"/>
     </row>
     <row r="8" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="31"/>
       <c r="I8" s="32"/>
       <c r="J8" s="33"/>
@@ -1573,17 +1571,17 @@
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="51">
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="48">
         <v>1.234</v>
       </c>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50"/>
       <c r="W8" s="24">
         <v>123456789</v>
       </c>
@@ -1592,11 +1590,11 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
-      <c r="AC8" s="51">
+      <c r="AC8" s="48">
         <v>1.234</v>
       </c>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="53"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="50"/>
       <c r="AF8" s="24">
         <v>123456789</v>
       </c>
@@ -1605,11 +1603,11 @@
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
-      <c r="AL8" s="51">
+      <c r="AL8" s="48">
         <v>1.234</v>
       </c>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="53"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="50"/>
       <c r="AO8" s="24">
         <v>123456789</v>
       </c>
@@ -1618,74 +1616,74 @@
       <c r="AR8" s="24"/>
       <c r="AS8" s="24"/>
       <c r="AT8" s="24"/>
-      <c r="AU8" s="51">
+      <c r="AU8" s="48">
         <v>1.234</v>
       </c>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="53"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="50"/>
       <c r="AX8" s="24"/>
       <c r="AY8" s="24"/>
       <c r="AZ8" s="24"/>
       <c r="BA8" s="24"/>
       <c r="BB8" s="24"/>
       <c r="BC8" s="24"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="53"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="50"/>
       <c r="BG8" s="24"/>
       <c r="BH8" s="24"/>
       <c r="BI8" s="24"/>
       <c r="BJ8" s="24"/>
       <c r="BK8" s="24"/>
       <c r="BL8" s="24"/>
-      <c r="BM8" s="51"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="53"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="49"/>
+      <c r="BO8" s="50"/>
       <c r="BP8" s="24"/>
       <c r="BQ8" s="24"/>
       <c r="BR8" s="24"/>
       <c r="BS8" s="24"/>
       <c r="BT8" s="24"/>
       <c r="BU8" s="24"/>
-      <c r="BV8" s="51"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="53"/>
+      <c r="BV8" s="48"/>
+      <c r="BW8" s="49"/>
+      <c r="BX8" s="50"/>
       <c r="BY8" s="24"/>
       <c r="BZ8" s="24"/>
       <c r="CA8" s="24"/>
       <c r="CB8" s="24"/>
       <c r="CC8" s="24"/>
       <c r="CD8" s="24"/>
-      <c r="CE8" s="51"/>
-      <c r="CF8" s="52"/>
-      <c r="CG8" s="53"/>
+      <c r="CE8" s="48"/>
+      <c r="CF8" s="49"/>
+      <c r="CG8" s="50"/>
       <c r="CH8" s="24"/>
       <c r="CI8" s="24"/>
       <c r="CJ8" s="24"/>
       <c r="CK8" s="24"/>
       <c r="CL8" s="24"/>
       <c r="CM8" s="24"/>
-      <c r="CN8" s="51"/>
-      <c r="CO8" s="52"/>
-      <c r="CP8" s="53"/>
+      <c r="CN8" s="48"/>
+      <c r="CO8" s="49"/>
+      <c r="CP8" s="50"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="24"/>
       <c r="CS8" s="24"/>
       <c r="CT8" s="24"/>
       <c r="CU8" s="24"/>
       <c r="CV8" s="24"/>
-      <c r="CW8" s="51"/>
-      <c r="CX8" s="52"/>
-      <c r="CY8" s="53"/>
+      <c r="CW8" s="48"/>
+      <c r="CX8" s="49"/>
+      <c r="CY8" s="50"/>
       <c r="CZ8" s="8"/>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
       <c r="J9" s="36"/>
@@ -1694,29 +1692,29 @@
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="51">
+      <c r="N9" s="48">
         <v>1.234</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
       <c r="T9" s="13"/>
       <c r="U9" s="14"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="51">
+      <c r="W9" s="48">
         <v>1.234</v>
       </c>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="53"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="50"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="41">
+      <c r="AF9" s="38">
         <v>1.2344999999999999</v>
       </c>
       <c r="AG9" s="14"/>
@@ -1727,7 +1725,7 @@
       <c r="AL9" s="13"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="15"/>
-      <c r="AO9" s="41">
+      <c r="AO9" s="38">
         <v>1.2344999999999999</v>
       </c>
       <c r="AP9" s="14"/>
@@ -1738,7 +1736,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="14"/>
       <c r="AW9" s="15"/>
-      <c r="AX9" s="41"/>
+      <c r="AX9" s="38"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
@@ -1747,7 +1745,7 @@
       <c r="BD9" s="13"/>
       <c r="BE9" s="14"/>
       <c r="BF9" s="15"/>
-      <c r="BG9" s="41"/>
+      <c r="BG9" s="38"/>
       <c r="BH9" s="14"/>
       <c r="BI9" s="14"/>
       <c r="BJ9" s="14"/>
@@ -1756,7 +1754,7 @@
       <c r="BM9" s="13"/>
       <c r="BN9" s="14"/>
       <c r="BO9" s="15"/>
-      <c r="BP9" s="41"/>
+      <c r="BP9" s="38"/>
       <c r="BQ9" s="14"/>
       <c r="BR9" s="14"/>
       <c r="BS9" s="14"/>
@@ -1765,7 +1763,7 @@
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="15"/>
-      <c r="BY9" s="41"/>
+      <c r="BY9" s="38"/>
       <c r="BZ9" s="14"/>
       <c r="CA9" s="14"/>
       <c r="CB9" s="14"/>
@@ -1774,7 +1772,7 @@
       <c r="CE9" s="13"/>
       <c r="CF9" s="14"/>
       <c r="CG9" s="15"/>
-      <c r="CH9" s="41"/>
+      <c r="CH9" s="38"/>
       <c r="CI9" s="14"/>
       <c r="CJ9" s="14"/>
       <c r="CK9" s="14"/>
@@ -1783,7 +1781,7 @@
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="15"/>
-      <c r="CQ9" s="41"/>
+      <c r="CQ9" s="38"/>
       <c r="CR9" s="14"/>
       <c r="CS9" s="14"/>
       <c r="CT9" s="14"/>
@@ -1813,14 +1811,14 @@
       </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="24">
+      <c r="N10" s="67">
         <v>1000</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
       <c r="T10" s="13"/>
       <c r="U10" s="14"/>
       <c r="V10" s="15"/>
@@ -1922,12 +1920,12 @@
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
       <c r="T11" s="13"/>
       <c r="U11" s="14"/>
       <c r="V11" s="15"/>
@@ -2140,14 +2138,14 @@
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="12">
+      <c r="N13" s="68">
         <v>9000</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
       <c r="T13" s="13"/>
       <c r="U13" s="14"/>
       <c r="V13" s="15"/>
@@ -2249,12 +2247,12 @@
       </c>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
       <c r="T14" s="13"/>
       <c r="U14" s="14"/>
       <c r="V14" s="15"/>
@@ -2467,12 +2465,12 @@
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
       <c r="T16" s="13"/>
       <c r="U16" s="14"/>
       <c r="V16" s="15"/>
@@ -2574,12 +2572,12 @@
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
       <c r="T17" s="13"/>
       <c r="U17" s="14"/>
       <c r="V17" s="15"/>
@@ -2676,98 +2674,98 @@
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="13"/>
       <c r="U18" s="14"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="15"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
       <c r="AL18" s="13"/>
       <c r="AM18" s="14"/>
       <c r="AN18" s="15"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="12"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
       <c r="AU18" s="13"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="15"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="12"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="12"/>
-      <c r="BC18" s="12"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
       <c r="BD18" s="13"/>
       <c r="BE18" s="14"/>
       <c r="BF18" s="15"/>
-      <c r="BG18" s="12"/>
-      <c r="BH18" s="12"/>
-      <c r="BI18" s="12"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
       <c r="BM18" s="13"/>
       <c r="BN18" s="14"/>
       <c r="BO18" s="15"/>
-      <c r="BP18" s="12"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="12"/>
-      <c r="BS18" s="12"/>
-      <c r="BT18" s="12"/>
-      <c r="BU18" s="12"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16"/>
       <c r="BV18" s="13"/>
       <c r="BW18" s="14"/>
       <c r="BX18" s="15"/>
-      <c r="BY18" s="12"/>
-      <c r="BZ18" s="12"/>
-      <c r="CA18" s="12"/>
-      <c r="CB18" s="12"/>
-      <c r="CC18" s="12"/>
-      <c r="CD18" s="12"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
       <c r="CE18" s="13"/>
       <c r="CF18" s="14"/>
       <c r="CG18" s="15"/>
-      <c r="CH18" s="12"/>
-      <c r="CI18" s="12"/>
-      <c r="CJ18" s="12"/>
-      <c r="CK18" s="12"/>
-      <c r="CL18" s="12"/>
-      <c r="CM18" s="12"/>
+      <c r="CH18" s="16"/>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="16"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="14"/>
       <c r="CP18" s="15"/>
-      <c r="CQ18" s="12"/>
-      <c r="CR18" s="12"/>
-      <c r="CS18" s="12"/>
-      <c r="CT18" s="12"/>
-      <c r="CU18" s="12"/>
-      <c r="CV18" s="12"/>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="16"/>
+      <c r="CU18" s="16"/>
+      <c r="CV18" s="16"/>
       <c r="CW18" s="13"/>
       <c r="CX18" s="14"/>
       <c r="CY18" s="15"/>
@@ -2792,12 +2790,12 @@
       </c>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
       <c r="T19" s="13"/>
       <c r="U19" s="14"/>
       <c r="V19" s="15"/>
@@ -2899,12 +2897,12 @@
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
       <c r="T20" s="13"/>
       <c r="U20" s="14"/>
       <c r="V20" s="15"/>
@@ -3117,12 +3115,12 @@
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
       <c r="T22" s="13"/>
       <c r="U22" s="14"/>
       <c r="V22" s="15"/>
@@ -3224,12 +3222,12 @@
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
       <c r="T23" s="13"/>
       <c r="U23" s="14"/>
       <c r="V23" s="15"/>
@@ -3442,12 +3440,12 @@
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
       <c r="T25" s="13"/>
       <c r="U25" s="14"/>
       <c r="V25" s="15"/>
@@ -3549,12 +3547,12 @@
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
       <c r="T26" s="13"/>
       <c r="U26" s="14"/>
       <c r="V26" s="15"/>
@@ -3767,12 +3765,12 @@
       </c>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="13"/>
       <c r="U28" s="14"/>
       <c r="V28" s="15"/>
@@ -3874,12 +3872,12 @@
       </c>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
       <c r="T29" s="13"/>
       <c r="U29" s="14"/>
       <c r="V29" s="15"/>
@@ -4092,12 +4090,12 @@
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
       <c r="T31" s="13"/>
       <c r="U31" s="14"/>
       <c r="V31" s="15"/>
@@ -4199,12 +4197,12 @@
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
       <c r="T32" s="13"/>
       <c r="U32" s="14"/>
       <c r="V32" s="15"/>
@@ -4417,12 +4415,12 @@
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
       <c r="T34" s="13"/>
       <c r="U34" s="14"/>
       <c r="V34" s="15"/>
@@ -4524,12 +4522,12 @@
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
       <c r="T35" s="13"/>
       <c r="U35" s="14"/>
       <c r="V35" s="15"/>
@@ -4742,12 +4740,12 @@
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
       <c r="T37" s="13"/>
       <c r="U37" s="14"/>
       <c r="V37" s="15"/>
@@ -4849,12 +4847,12 @@
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
       <c r="T38" s="13"/>
       <c r="U38" s="14"/>
       <c r="V38" s="15"/>
@@ -5067,12 +5065,12 @@
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
       <c r="T40" s="13"/>
       <c r="U40" s="14"/>
       <c r="V40" s="15"/>
@@ -5174,12 +5172,12 @@
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
       <c r="T41" s="13"/>
       <c r="U41" s="14"/>
       <c r="V41" s="15"/>
@@ -5392,12 +5390,12 @@
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
       <c r="T43" s="13"/>
       <c r="U43" s="14"/>
       <c r="V43" s="15"/>
@@ -5499,12 +5497,12 @@
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
       <c r="T44" s="13"/>
       <c r="U44" s="14"/>
       <c r="V44" s="15"/>
@@ -5804,6 +5802,7 @@
       <c r="CZ46" s="11"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="869">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:M4"/>
@@ -6058,6 +6057,7 @@
     <mergeCell ref="AF17:AK17"/>
     <mergeCell ref="AL17:AN17"/>
     <mergeCell ref="AO17:AT17"/>
+    <mergeCell ref="AU17:AW17"/>
     <mergeCell ref="CH16:CM16"/>
     <mergeCell ref="CE19:CG19"/>
     <mergeCell ref="CH19:CM19"/>
@@ -6074,6 +6074,12 @@
     <mergeCell ref="CN17:CP17"/>
     <mergeCell ref="CQ17:CV17"/>
     <mergeCell ref="CN16:CP16"/>
+    <mergeCell ref="BY18:CD18"/>
+    <mergeCell ref="CE18:CG18"/>
+    <mergeCell ref="CH18:CM18"/>
+    <mergeCell ref="CN18:CP18"/>
+    <mergeCell ref="CQ18:CV18"/>
+    <mergeCell ref="CW18:CY18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="T18:V18"/>
@@ -6083,13 +6089,6 @@
     <mergeCell ref="AL18:AN18"/>
     <mergeCell ref="AO18:AT18"/>
     <mergeCell ref="AU18:AW18"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="BY18:CD18"/>
-    <mergeCell ref="CE18:CG18"/>
-    <mergeCell ref="CH18:CM18"/>
-    <mergeCell ref="CN18:CP18"/>
-    <mergeCell ref="CQ18:CV18"/>
-    <mergeCell ref="CW18:CY18"/>
     <mergeCell ref="AX18:BC18"/>
     <mergeCell ref="BD18:BF18"/>
     <mergeCell ref="BG18:BL18"/>
@@ -6186,7 +6185,6 @@
     <mergeCell ref="CN23:CP23"/>
     <mergeCell ref="CQ23:CV23"/>
     <mergeCell ref="CW23:CY23"/>
-    <mergeCell ref="BV23:BX23"/>
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="N24:S24"/>
     <mergeCell ref="T24:V24"/>
@@ -6205,6 +6203,7 @@
     <mergeCell ref="AX23:BC23"/>
     <mergeCell ref="BD23:BF23"/>
     <mergeCell ref="BG23:BL23"/>
+    <mergeCell ref="BV23:BX23"/>
     <mergeCell ref="CQ24:CV24"/>
     <mergeCell ref="CW24:CY24"/>
     <mergeCell ref="C25:G27"/>
@@ -6318,6 +6317,7 @@
     <mergeCell ref="AF29:AK29"/>
     <mergeCell ref="AL29:AN29"/>
     <mergeCell ref="AO29:AT29"/>
+    <mergeCell ref="AU29:AW29"/>
     <mergeCell ref="CH28:CM28"/>
     <mergeCell ref="CE31:CG31"/>
     <mergeCell ref="CH31:CM31"/>
@@ -6334,6 +6334,12 @@
     <mergeCell ref="CN29:CP29"/>
     <mergeCell ref="CQ29:CV29"/>
     <mergeCell ref="CN28:CP28"/>
+    <mergeCell ref="BY30:CD30"/>
+    <mergeCell ref="CE30:CG30"/>
+    <mergeCell ref="CH30:CM30"/>
+    <mergeCell ref="CN30:CP30"/>
+    <mergeCell ref="CQ30:CV30"/>
+    <mergeCell ref="CW30:CY30"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="N30:S30"/>
     <mergeCell ref="T30:V30"/>
@@ -6343,13 +6349,6 @@
     <mergeCell ref="AL30:AN30"/>
     <mergeCell ref="AO30:AT30"/>
     <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="BY30:CD30"/>
-    <mergeCell ref="CE30:CG30"/>
-    <mergeCell ref="CH30:CM30"/>
-    <mergeCell ref="CN30:CP30"/>
-    <mergeCell ref="CQ30:CV30"/>
-    <mergeCell ref="CW30:CY30"/>
     <mergeCell ref="AX30:BC30"/>
     <mergeCell ref="BD30:BF30"/>
     <mergeCell ref="BG30:BL30"/>
@@ -6446,7 +6445,6 @@
     <mergeCell ref="CN35:CP35"/>
     <mergeCell ref="CQ35:CV35"/>
     <mergeCell ref="CW35:CY35"/>
-    <mergeCell ref="BV35:BX35"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="N36:S36"/>
     <mergeCell ref="T36:V36"/>
@@ -6465,6 +6463,7 @@
     <mergeCell ref="AX35:BC35"/>
     <mergeCell ref="BD35:BF35"/>
     <mergeCell ref="BG35:BL35"/>
+    <mergeCell ref="BV35:BX35"/>
     <mergeCell ref="CQ36:CV36"/>
     <mergeCell ref="CW36:CY36"/>
     <mergeCell ref="C37:G39"/>

--- a/CM_BIN/ReoGridPLTop.xlsx
+++ b/CM_BIN/ReoGridPLTop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishiguchi\source\repos\hdcinc\CountingManagement\CM_BIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\hdcinc\CountingManagement\CM_BIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,33 @@
   </sheets>
   <definedNames>
     <definedName name="AS2DocOpenMode" hidden="1">"AS2DocumentEdit"</definedName>
+    <definedName name="営業外収益_計画_1">画面案!$N$22</definedName>
+    <definedName name="営業外収益_実績_1">画面案!$N$23</definedName>
+    <definedName name="営業外費用_計画_1">画面案!$N$25</definedName>
+    <definedName name="営業外費用_実績_1">画面案!$N$26</definedName>
+    <definedName name="営業利益_計画_1">画面案!$N$19</definedName>
+    <definedName name="営業利益_実績_1">画面案!$N$20</definedName>
+    <definedName name="経常利益_計画_1">画面案!$N$28</definedName>
+    <definedName name="経常利益_実績_1">画面案!$N$29</definedName>
+    <definedName name="税引前当期純利益_計画_1">画面案!$N$37</definedName>
+    <definedName name="税引前当期純利益_実績_1">画面案!$N$38</definedName>
+    <definedName name="当期純利益_計画_1">画面案!$N$43</definedName>
+    <definedName name="当期純利益_実績_1">画面案!$N$44</definedName>
+    <definedName name="特別損失_計画_1">画面案!$N$34</definedName>
+    <definedName name="特別損失_実績_1">画面案!$N$35</definedName>
+    <definedName name="特別利益_計画_1">画面案!$N$31</definedName>
+    <definedName name="特別利益_実績_1">画面案!$N$32</definedName>
+    <definedName name="売上_計画_1">画面案!$N$7</definedName>
+    <definedName name="売上_実績_1">画面案!$N$8</definedName>
+    <definedName name="売上原価_計画_1">画面案!$N$10</definedName>
+    <definedName name="売上原価_実績_1">画面案!$N$11</definedName>
+    <definedName name="売上総利益_計画_1">画面案!$N$13</definedName>
     <definedName name="売上総利益_計画_2015">画面案!$W$13</definedName>
+    <definedName name="売上総利益_実績_1">画面案!$N$14</definedName>
+    <definedName name="販管費_計画_1">画面案!$N$16</definedName>
+    <definedName name="販管費_実績_1">画面案!$N$17</definedName>
+    <definedName name="法人税等_計画_1">画面案!$N$40</definedName>
+    <definedName name="法人税等_実績_1">画面案!$N$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,10 +77,6 @@
   </si>
   <si>
     <t>2018</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・・・</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -263,6 +285,10 @@
     <rPh sb="2" eb="5">
       <t>ジュンリエキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2014</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -498,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -539,9 +565,15 @@
     <xf numFmtId="42" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,7 +608,6 @@
     <xf numFmtId="42" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,15 +680,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,7 +963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1060,21 +1084,21 @@
     </row>
     <row r="4" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -1262,459 +1286,459 @@
     </row>
     <row r="6" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="65" t="s">
+      <c r="U6" s="66"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="65"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="64" t="s">
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="64" t="s">
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="64" t="s">
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="53" t="s">
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="54"/>
+      <c r="BM6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="53" t="s">
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="54"/>
+      <c r="BS6" s="54"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW6" s="52"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="BW6" s="51"/>
-      <c r="BX6" s="52"/>
-      <c r="BY6" s="53" t="s">
+      <c r="BZ6" s="54"/>
+      <c r="CA6" s="54"/>
+      <c r="CB6" s="54"/>
+      <c r="CC6" s="54"/>
+      <c r="CD6" s="54"/>
+      <c r="CE6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF6" s="52"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF6" s="51"/>
-      <c r="CG6" s="52"/>
-      <c r="CH6" s="53" t="s">
+      <c r="CI6" s="54"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="54"/>
+      <c r="CN6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO6" s="52"/>
+      <c r="CP6" s="53"/>
+      <c r="CQ6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="CO6" s="51"/>
-      <c r="CP6" s="52"/>
-      <c r="CQ6" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
-      <c r="CT6" s="53"/>
-      <c r="CU6" s="53"/>
-      <c r="CV6" s="53"/>
-      <c r="CW6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="CX6" s="51"/>
-      <c r="CY6" s="52"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
+      <c r="CT6" s="54"/>
+      <c r="CU6" s="54"/>
+      <c r="CV6" s="54"/>
+      <c r="CW6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX6" s="52"/>
+      <c r="CY6" s="53"/>
       <c r="CZ6" s="8"/>
     </row>
     <row r="7" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="28" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="67">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27">
         <v>10000</v>
       </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="48">
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="49">
         <v>1.234</v>
       </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="24">
+      <c r="U7" s="50"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="25">
         <v>123456789</v>
       </c>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="48">
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="49">
         <v>1.234</v>
       </c>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="24">
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="25">
         <v>123456789</v>
       </c>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="48">
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="49">
         <v>1.234</v>
       </c>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="24">
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="25">
         <v>123456789</v>
       </c>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="48">
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="49">
         <v>1.234</v>
       </c>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="24">
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="25">
         <v>123456789</v>
       </c>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="48">
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="49">
         <v>1.234</v>
       </c>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="24">
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="25">
         <v>123456789</v>
       </c>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="48">
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="49">
         <v>1.234</v>
       </c>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="50"/>
-      <c r="BP7" s="24">
+      <c r="BN7" s="50"/>
+      <c r="BO7" s="51"/>
+      <c r="BP7" s="25">
         <v>123456789</v>
       </c>
-      <c r="BQ7" s="24"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="24"/>
-      <c r="BT7" s="24"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="48">
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BS7" s="25"/>
+      <c r="BT7" s="25"/>
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="49">
         <v>1.234</v>
       </c>
-      <c r="BW7" s="49"/>
-      <c r="BX7" s="50"/>
-      <c r="BY7" s="24">
+      <c r="BW7" s="50"/>
+      <c r="BX7" s="51"/>
+      <c r="BY7" s="25">
         <v>123456789</v>
       </c>
-      <c r="BZ7" s="24"/>
-      <c r="CA7" s="24"/>
-      <c r="CB7" s="24"/>
-      <c r="CC7" s="24"/>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="48">
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="49">
         <v>1.234</v>
       </c>
-      <c r="CF7" s="49"/>
-      <c r="CG7" s="50"/>
-      <c r="CH7" s="24">
+      <c r="CF7" s="50"/>
+      <c r="CG7" s="51"/>
+      <c r="CH7" s="25">
         <v>123456789</v>
       </c>
-      <c r="CI7" s="24"/>
-      <c r="CJ7" s="24"/>
-      <c r="CK7" s="24"/>
-      <c r="CL7" s="24"/>
-      <c r="CM7" s="24"/>
-      <c r="CN7" s="48">
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="49">
         <v>1.234</v>
       </c>
-      <c r="CO7" s="49"/>
-      <c r="CP7" s="50"/>
-      <c r="CQ7" s="24">
+      <c r="CO7" s="50"/>
+      <c r="CP7" s="51"/>
+      <c r="CQ7" s="25">
         <v>123456789</v>
       </c>
-      <c r="CR7" s="24"/>
-      <c r="CS7" s="24"/>
-      <c r="CT7" s="24"/>
-      <c r="CU7" s="24"/>
-      <c r="CV7" s="24"/>
-      <c r="CW7" s="48">
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
+      <c r="CU7" s="25"/>
+      <c r="CV7" s="25"/>
+      <c r="CW7" s="49">
         <v>1.234</v>
       </c>
-      <c r="CX7" s="49"/>
-      <c r="CY7" s="50"/>
+      <c r="CX7" s="50"/>
+      <c r="CY7" s="51"/>
       <c r="CZ7" s="8"/>
     </row>
     <row r="8" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="48">
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="49">
         <v>1.234</v>
       </c>
-      <c r="U8" s="49"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="24">
+      <c r="U8" s="50"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="25">
         <v>123456789</v>
       </c>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="48">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="49">
         <v>1.234</v>
       </c>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="24">
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="25">
         <v>123456789</v>
       </c>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="48">
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="49">
         <v>1.234</v>
       </c>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="24">
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="25">
         <v>123456789</v>
       </c>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="48">
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="49">
         <v>1.234</v>
       </c>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="24"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="50"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="24"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="48"/>
-      <c r="BN8" s="49"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="24"/>
-      <c r="BR8" s="24"/>
-      <c r="BS8" s="24"/>
-      <c r="BT8" s="24"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="48"/>
-      <c r="BW8" s="49"/>
-      <c r="BX8" s="50"/>
-      <c r="BY8" s="24"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="48"/>
-      <c r="CF8" s="49"/>
-      <c r="CG8" s="50"/>
-      <c r="CH8" s="24"/>
-      <c r="CI8" s="24"/>
-      <c r="CJ8" s="24"/>
-      <c r="CK8" s="24"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="48"/>
-      <c r="CO8" s="49"/>
-      <c r="CP8" s="50"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="24"/>
-      <c r="CS8" s="24"/>
-      <c r="CT8" s="24"/>
-      <c r="CU8" s="24"/>
-      <c r="CV8" s="24"/>
-      <c r="CW8" s="48"/>
-      <c r="CX8" s="49"/>
-      <c r="CY8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="25"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="25"/>
+      <c r="BK8" s="25"/>
+      <c r="BL8" s="25"/>
+      <c r="BM8" s="49"/>
+      <c r="BN8" s="50"/>
+      <c r="BO8" s="51"/>
+      <c r="BP8" s="25"/>
+      <c r="BQ8" s="25"/>
+      <c r="BR8" s="25"/>
+      <c r="BS8" s="25"/>
+      <c r="BT8" s="25"/>
+      <c r="BU8" s="25"/>
+      <c r="BV8" s="49"/>
+      <c r="BW8" s="50"/>
+      <c r="BX8" s="51"/>
+      <c r="BY8" s="25"/>
+      <c r="BZ8" s="25"/>
+      <c r="CA8" s="25"/>
+      <c r="CB8" s="25"/>
+      <c r="CC8" s="25"/>
+      <c r="CD8" s="25"/>
+      <c r="CE8" s="49"/>
+      <c r="CF8" s="50"/>
+      <c r="CG8" s="51"/>
+      <c r="CH8" s="25"/>
+      <c r="CI8" s="25"/>
+      <c r="CJ8" s="25"/>
+      <c r="CK8" s="25"/>
+      <c r="CL8" s="25"/>
+      <c r="CM8" s="25"/>
+      <c r="CN8" s="49"/>
+      <c r="CO8" s="50"/>
+      <c r="CP8" s="51"/>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25"/>
+      <c r="CT8" s="25"/>
+      <c r="CU8" s="25"/>
+      <c r="CV8" s="25"/>
+      <c r="CW8" s="49"/>
+      <c r="CX8" s="50"/>
+      <c r="CY8" s="51"/>
       <c r="CZ8" s="8"/>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="48">
+      <c r="N9" s="49">
         <v>1.234</v>
       </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
       <c r="T9" s="13"/>
       <c r="U9" s="14"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="48">
+      <c r="W9" s="49">
         <v>1.234</v>
       </c>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="51"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="38">
+      <c r="AF9" s="39">
         <v>1.2344999999999999</v>
       </c>
       <c r="AG9" s="14"/>
@@ -1725,7 +1749,7 @@
       <c r="AL9" s="13"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="15"/>
-      <c r="AO9" s="38">
+      <c r="AO9" s="39">
         <v>1.2344999999999999</v>
       </c>
       <c r="AP9" s="14"/>
@@ -1736,7 +1760,7 @@
       <c r="AU9" s="13"/>
       <c r="AV9" s="14"/>
       <c r="AW9" s="15"/>
-      <c r="AX9" s="38"/>
+      <c r="AX9" s="39"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
@@ -1745,7 +1769,7 @@
       <c r="BD9" s="13"/>
       <c r="BE9" s="14"/>
       <c r="BF9" s="15"/>
-      <c r="BG9" s="38"/>
+      <c r="BG9" s="39"/>
       <c r="BH9" s="14"/>
       <c r="BI9" s="14"/>
       <c r="BJ9" s="14"/>
@@ -1754,7 +1778,7 @@
       <c r="BM9" s="13"/>
       <c r="BN9" s="14"/>
       <c r="BO9" s="15"/>
-      <c r="BP9" s="38"/>
+      <c r="BP9" s="39"/>
       <c r="BQ9" s="14"/>
       <c r="BR9" s="14"/>
       <c r="BS9" s="14"/>
@@ -1763,7 +1787,7 @@
       <c r="BV9" s="13"/>
       <c r="BW9" s="14"/>
       <c r="BX9" s="15"/>
-      <c r="BY9" s="38"/>
+      <c r="BY9" s="39"/>
       <c r="BZ9" s="14"/>
       <c r="CA9" s="14"/>
       <c r="CB9" s="14"/>
@@ -1772,7 +1796,7 @@
       <c r="CE9" s="13"/>
       <c r="CF9" s="14"/>
       <c r="CG9" s="15"/>
-      <c r="CH9" s="38"/>
+      <c r="CH9" s="39"/>
       <c r="CI9" s="14"/>
       <c r="CJ9" s="14"/>
       <c r="CK9" s="14"/>
@@ -1781,7 +1805,7 @@
       <c r="CN9" s="13"/>
       <c r="CO9" s="14"/>
       <c r="CP9" s="15"/>
-      <c r="CQ9" s="38"/>
+      <c r="CQ9" s="39"/>
       <c r="CR9" s="14"/>
       <c r="CS9" s="14"/>
       <c r="CT9" s="14"/>
@@ -1794,112 +1818,112 @@
     </row>
     <row r="10" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
-      <c r="C10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="67">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27">
         <v>1000</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="13"/>
       <c r="U10" s="14"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="14"/>
       <c r="AN10" s="15"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
       <c r="AU10" s="13"/>
       <c r="AV10" s="14"/>
       <c r="AW10" s="15"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
       <c r="BD10" s="13"/>
       <c r="BE10" s="14"/>
       <c r="BF10" s="15"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="24"/>
-      <c r="BI10" s="24"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
       <c r="BM10" s="13"/>
       <c r="BN10" s="14"/>
       <c r="BO10" s="15"/>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="24"/>
-      <c r="BT10" s="24"/>
-      <c r="BU10" s="24"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="25"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="14"/>
       <c r="BX10" s="15"/>
-      <c r="BY10" s="24"/>
-      <c r="BZ10" s="24"/>
-      <c r="CA10" s="24"/>
-      <c r="CB10" s="24"/>
-      <c r="CC10" s="24"/>
-      <c r="CD10" s="24"/>
+      <c r="BY10" s="25"/>
+      <c r="BZ10" s="25"/>
+      <c r="CA10" s="25"/>
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="25"/>
       <c r="CE10" s="13"/>
       <c r="CF10" s="14"/>
       <c r="CG10" s="15"/>
-      <c r="CH10" s="24"/>
-      <c r="CI10" s="24"/>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="24"/>
-      <c r="CL10" s="24"/>
-      <c r="CM10" s="24"/>
+      <c r="CH10" s="25"/>
+      <c r="CI10" s="25"/>
+      <c r="CJ10" s="25"/>
+      <c r="CK10" s="25"/>
+      <c r="CL10" s="25"/>
+      <c r="CM10" s="25"/>
       <c r="CN10" s="13"/>
       <c r="CO10" s="14"/>
       <c r="CP10" s="15"/>
-      <c r="CQ10" s="24"/>
-      <c r="CR10" s="24"/>
-      <c r="CS10" s="24"/>
-      <c r="CT10" s="24"/>
-      <c r="CU10" s="24"/>
-      <c r="CV10" s="24"/>
+      <c r="CQ10" s="25"/>
+      <c r="CR10" s="25"/>
+      <c r="CS10" s="25"/>
+      <c r="CT10" s="25"/>
+      <c r="CU10" s="25"/>
+      <c r="CV10" s="25"/>
       <c r="CW10" s="13"/>
       <c r="CX10" s="14"/>
       <c r="CY10" s="15"/>
@@ -1907,106 +1931,106 @@
     </row>
     <row r="11" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
       <c r="T11" s="13"/>
       <c r="U11" s="14"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="15"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="14"/>
       <c r="AW11" s="15"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
       <c r="BD11" s="13"/>
       <c r="BE11" s="14"/>
       <c r="BF11" s="15"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
       <c r="BM11" s="13"/>
       <c r="BN11" s="14"/>
       <c r="BO11" s="15"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="24"/>
-      <c r="BT11" s="24"/>
-      <c r="BU11" s="24"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="25"/>
+      <c r="BU11" s="25"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="14"/>
       <c r="BX11" s="15"/>
-      <c r="BY11" s="24"/>
-      <c r="BZ11" s="24"/>
-      <c r="CA11" s="24"/>
-      <c r="CB11" s="24"/>
-      <c r="CC11" s="24"/>
-      <c r="CD11" s="24"/>
+      <c r="BY11" s="25"/>
+      <c r="BZ11" s="25"/>
+      <c r="CA11" s="25"/>
+      <c r="CB11" s="25"/>
+      <c r="CC11" s="25"/>
+      <c r="CD11" s="25"/>
       <c r="CE11" s="13"/>
       <c r="CF11" s="14"/>
       <c r="CG11" s="15"/>
-      <c r="CH11" s="24"/>
-      <c r="CI11" s="24"/>
-      <c r="CJ11" s="24"/>
-      <c r="CK11" s="24"/>
-      <c r="CL11" s="24"/>
-      <c r="CM11" s="24"/>
+      <c r="CH11" s="25"/>
+      <c r="CI11" s="25"/>
+      <c r="CJ11" s="25"/>
+      <c r="CK11" s="25"/>
+      <c r="CL11" s="25"/>
+      <c r="CM11" s="25"/>
       <c r="CN11" s="13"/>
       <c r="CO11" s="14"/>
       <c r="CP11" s="15"/>
-      <c r="CQ11" s="24"/>
-      <c r="CR11" s="24"/>
-      <c r="CS11" s="24"/>
-      <c r="CT11" s="24"/>
-      <c r="CU11" s="24"/>
-      <c r="CV11" s="24"/>
+      <c r="CQ11" s="25"/>
+      <c r="CR11" s="25"/>
+      <c r="CS11" s="25"/>
+      <c r="CT11" s="25"/>
+      <c r="CU11" s="25"/>
+      <c r="CV11" s="25"/>
       <c r="CW11" s="13"/>
       <c r="CX11" s="14"/>
       <c r="CY11" s="15"/>
@@ -2014,16 +2038,16 @@
     </row>
     <row r="12" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
@@ -2122,31 +2146,34 @@
     <row r="13" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="68">
+      <c r="N13" s="24">
         <v>9000</v>
       </c>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="13"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="13">
+        <f>N13+10</f>
+        <v>9010</v>
+      </c>
       <c r="U13" s="14"/>
       <c r="V13" s="15"/>
       <c r="W13" s="12"/>
@@ -2239,20 +2266,20 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="13"/>
       <c r="U14" s="14"/>
       <c r="V14" s="15"/>
@@ -2346,11 +2373,11 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="19"/>
@@ -2448,110 +2475,110 @@
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
-      <c r="C16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
       <c r="T16" s="13"/>
       <c r="U16" s="14"/>
       <c r="V16" s="15"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="15"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
       <c r="AL16" s="13"/>
       <c r="AM16" s="14"/>
       <c r="AN16" s="15"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
       <c r="AU16" s="13"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="15"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="24"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
       <c r="BD16" s="13"/>
       <c r="BE16" s="14"/>
       <c r="BF16" s="15"/>
-      <c r="BG16" s="24"/>
-      <c r="BH16" s="24"/>
-      <c r="BI16" s="24"/>
-      <c r="BJ16" s="24"/>
-      <c r="BK16" s="24"/>
-      <c r="BL16" s="24"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
       <c r="BM16" s="13"/>
       <c r="BN16" s="14"/>
       <c r="BO16" s="15"/>
-      <c r="BP16" s="24"/>
-      <c r="BQ16" s="24"/>
-      <c r="BR16" s="24"/>
-      <c r="BS16" s="24"/>
-      <c r="BT16" s="24"/>
-      <c r="BU16" s="24"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="25"/>
+      <c r="BU16" s="25"/>
       <c r="BV16" s="13"/>
       <c r="BW16" s="14"/>
       <c r="BX16" s="15"/>
-      <c r="BY16" s="24"/>
-      <c r="BZ16" s="24"/>
-      <c r="CA16" s="24"/>
-      <c r="CB16" s="24"/>
-      <c r="CC16" s="24"/>
-      <c r="CD16" s="24"/>
+      <c r="BY16" s="25"/>
+      <c r="BZ16" s="25"/>
+      <c r="CA16" s="25"/>
+      <c r="CB16" s="25"/>
+      <c r="CC16" s="25"/>
+      <c r="CD16" s="25"/>
       <c r="CE16" s="13"/>
       <c r="CF16" s="14"/>
       <c r="CG16" s="15"/>
-      <c r="CH16" s="24"/>
-      <c r="CI16" s="24"/>
-      <c r="CJ16" s="24"/>
-      <c r="CK16" s="24"/>
-      <c r="CL16" s="24"/>
-      <c r="CM16" s="24"/>
+      <c r="CH16" s="25"/>
+      <c r="CI16" s="25"/>
+      <c r="CJ16" s="25"/>
+      <c r="CK16" s="25"/>
+      <c r="CL16" s="25"/>
+      <c r="CM16" s="25"/>
       <c r="CN16" s="13"/>
       <c r="CO16" s="14"/>
       <c r="CP16" s="15"/>
-      <c r="CQ16" s="24"/>
-      <c r="CR16" s="24"/>
-      <c r="CS16" s="24"/>
-      <c r="CT16" s="24"/>
-      <c r="CU16" s="24"/>
-      <c r="CV16" s="24"/>
+      <c r="CQ16" s="25"/>
+      <c r="CR16" s="25"/>
+      <c r="CS16" s="25"/>
+      <c r="CT16" s="25"/>
+      <c r="CU16" s="25"/>
+      <c r="CV16" s="25"/>
       <c r="CW16" s="13"/>
       <c r="CX16" s="14"/>
       <c r="CY16" s="15"/>
@@ -2559,106 +2586,106 @@
     </row>
     <row r="17" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="13"/>
       <c r="U17" s="14"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="15"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
       <c r="AL17" s="13"/>
       <c r="AM17" s="14"/>
       <c r="AN17" s="15"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
       <c r="AU17" s="13"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="15"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
-      <c r="BC17" s="24"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
       <c r="BD17" s="13"/>
       <c r="BE17" s="14"/>
       <c r="BF17" s="15"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24"/>
-      <c r="BJ17" s="24"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
       <c r="BM17" s="13"/>
       <c r="BN17" s="14"/>
       <c r="BO17" s="15"/>
-      <c r="BP17" s="24"/>
-      <c r="BQ17" s="24"/>
-      <c r="BR17" s="24"/>
-      <c r="BS17" s="24"/>
-      <c r="BT17" s="24"/>
-      <c r="BU17" s="24"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="25"/>
       <c r="BV17" s="13"/>
       <c r="BW17" s="14"/>
       <c r="BX17" s="15"/>
-      <c r="BY17" s="24"/>
-      <c r="BZ17" s="24"/>
-      <c r="CA17" s="24"/>
-      <c r="CB17" s="24"/>
-      <c r="CC17" s="24"/>
-      <c r="CD17" s="24"/>
+      <c r="BY17" s="25"/>
+      <c r="BZ17" s="25"/>
+      <c r="CA17" s="25"/>
+      <c r="CB17" s="25"/>
+      <c r="CC17" s="25"/>
+      <c r="CD17" s="25"/>
       <c r="CE17" s="13"/>
       <c r="CF17" s="14"/>
       <c r="CG17" s="15"/>
-      <c r="CH17" s="24"/>
-      <c r="CI17" s="24"/>
-      <c r="CJ17" s="24"/>
-      <c r="CK17" s="24"/>
-      <c r="CL17" s="24"/>
-      <c r="CM17" s="24"/>
+      <c r="CH17" s="25"/>
+      <c r="CI17" s="25"/>
+      <c r="CJ17" s="25"/>
+      <c r="CK17" s="25"/>
+      <c r="CL17" s="25"/>
+      <c r="CM17" s="25"/>
       <c r="CN17" s="13"/>
       <c r="CO17" s="14"/>
       <c r="CP17" s="15"/>
-      <c r="CQ17" s="24"/>
-      <c r="CR17" s="24"/>
-      <c r="CS17" s="24"/>
-      <c r="CT17" s="24"/>
-      <c r="CU17" s="24"/>
-      <c r="CV17" s="24"/>
+      <c r="CQ17" s="25"/>
+      <c r="CR17" s="25"/>
+      <c r="CS17" s="25"/>
+      <c r="CT17" s="25"/>
+      <c r="CU17" s="25"/>
+      <c r="CV17" s="25"/>
       <c r="CW17" s="13"/>
       <c r="CX17" s="14"/>
       <c r="CY17" s="15"/>
@@ -2666,16 +2693,16 @@
     </row>
     <row r="18" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="19"/>
@@ -2774,28 +2801,28 @@
     <row r="19" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="13"/>
       <c r="U19" s="14"/>
       <c r="V19" s="15"/>
@@ -2889,20 +2916,20 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
       <c r="T20" s="13"/>
       <c r="U20" s="14"/>
       <c r="V20" s="15"/>
@@ -2996,11 +3023,11 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="19"/>
@@ -3098,110 +3125,110 @@
     </row>
     <row r="22" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
-      <c r="C22" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28" t="s">
+      <c r="C22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
       <c r="T22" s="13"/>
       <c r="U22" s="14"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="14"/>
       <c r="AN22" s="15"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="14"/>
       <c r="AW22" s="15"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
       <c r="BD22" s="13"/>
       <c r="BE22" s="14"/>
       <c r="BF22" s="15"/>
-      <c r="BG22" s="24"/>
-      <c r="BH22" s="24"/>
-      <c r="BI22" s="24"/>
-      <c r="BJ22" s="24"/>
-      <c r="BK22" s="24"/>
-      <c r="BL22" s="24"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="25"/>
       <c r="BM22" s="13"/>
       <c r="BN22" s="14"/>
       <c r="BO22" s="15"/>
-      <c r="BP22" s="24"/>
-      <c r="BQ22" s="24"/>
-      <c r="BR22" s="24"/>
-      <c r="BS22" s="24"/>
-      <c r="BT22" s="24"/>
-      <c r="BU22" s="24"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
+      <c r="BT22" s="25"/>
+      <c r="BU22" s="25"/>
       <c r="BV22" s="13"/>
       <c r="BW22" s="14"/>
       <c r="BX22" s="15"/>
-      <c r="BY22" s="24"/>
-      <c r="BZ22" s="24"/>
-      <c r="CA22" s="24"/>
-      <c r="CB22" s="24"/>
-      <c r="CC22" s="24"/>
-      <c r="CD22" s="24"/>
+      <c r="BY22" s="25"/>
+      <c r="BZ22" s="25"/>
+      <c r="CA22" s="25"/>
+      <c r="CB22" s="25"/>
+      <c r="CC22" s="25"/>
+      <c r="CD22" s="25"/>
       <c r="CE22" s="13"/>
       <c r="CF22" s="14"/>
       <c r="CG22" s="15"/>
-      <c r="CH22" s="24"/>
-      <c r="CI22" s="24"/>
-      <c r="CJ22" s="24"/>
-      <c r="CK22" s="24"/>
-      <c r="CL22" s="24"/>
-      <c r="CM22" s="24"/>
+      <c r="CH22" s="25"/>
+      <c r="CI22" s="25"/>
+      <c r="CJ22" s="25"/>
+      <c r="CK22" s="25"/>
+      <c r="CL22" s="25"/>
+      <c r="CM22" s="25"/>
       <c r="CN22" s="13"/>
       <c r="CO22" s="14"/>
       <c r="CP22" s="15"/>
-      <c r="CQ22" s="24"/>
-      <c r="CR22" s="24"/>
-      <c r="CS22" s="24"/>
-      <c r="CT22" s="24"/>
-      <c r="CU22" s="24"/>
-      <c r="CV22" s="24"/>
+      <c r="CQ22" s="25"/>
+      <c r="CR22" s="25"/>
+      <c r="CS22" s="25"/>
+      <c r="CT22" s="25"/>
+      <c r="CU22" s="25"/>
+      <c r="CV22" s="25"/>
       <c r="CW22" s="13"/>
       <c r="CX22" s="14"/>
       <c r="CY22" s="15"/>
@@ -3209,106 +3236,106 @@
     </row>
     <row r="23" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
       <c r="T23" s="13"/>
       <c r="U23" s="14"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="15"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="15"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24"/>
-      <c r="BC23" s="24"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
       <c r="BD23" s="13"/>
       <c r="BE23" s="14"/>
       <c r="BF23" s="15"/>
-      <c r="BG23" s="24"/>
-      <c r="BH23" s="24"/>
-      <c r="BI23" s="24"/>
-      <c r="BJ23" s="24"/>
-      <c r="BK23" s="24"/>
-      <c r="BL23" s="24"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" s="25"/>
       <c r="BM23" s="13"/>
       <c r="BN23" s="14"/>
       <c r="BO23" s="15"/>
-      <c r="BP23" s="24"/>
-      <c r="BQ23" s="24"/>
-      <c r="BR23" s="24"/>
-      <c r="BS23" s="24"/>
-      <c r="BT23" s="24"/>
-      <c r="BU23" s="24"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="25"/>
+      <c r="BS23" s="25"/>
+      <c r="BT23" s="25"/>
+      <c r="BU23" s="25"/>
       <c r="BV23" s="13"/>
       <c r="BW23" s="14"/>
       <c r="BX23" s="15"/>
-      <c r="BY23" s="24"/>
-      <c r="BZ23" s="24"/>
-      <c r="CA23" s="24"/>
-      <c r="CB23" s="24"/>
-      <c r="CC23" s="24"/>
-      <c r="CD23" s="24"/>
+      <c r="BY23" s="25"/>
+      <c r="BZ23" s="25"/>
+      <c r="CA23" s="25"/>
+      <c r="CB23" s="25"/>
+      <c r="CC23" s="25"/>
+      <c r="CD23" s="25"/>
       <c r="CE23" s="13"/>
       <c r="CF23" s="14"/>
       <c r="CG23" s="15"/>
-      <c r="CH23" s="24"/>
-      <c r="CI23" s="24"/>
-      <c r="CJ23" s="24"/>
-      <c r="CK23" s="24"/>
-      <c r="CL23" s="24"/>
-      <c r="CM23" s="24"/>
+      <c r="CH23" s="25"/>
+      <c r="CI23" s="25"/>
+      <c r="CJ23" s="25"/>
+      <c r="CK23" s="25"/>
+      <c r="CL23" s="25"/>
+      <c r="CM23" s="25"/>
       <c r="CN23" s="13"/>
       <c r="CO23" s="14"/>
       <c r="CP23" s="15"/>
-      <c r="CQ23" s="24"/>
-      <c r="CR23" s="24"/>
-      <c r="CS23" s="24"/>
-      <c r="CT23" s="24"/>
-      <c r="CU23" s="24"/>
-      <c r="CV23" s="24"/>
+      <c r="CQ23" s="25"/>
+      <c r="CR23" s="25"/>
+      <c r="CS23" s="25"/>
+      <c r="CT23" s="25"/>
+      <c r="CU23" s="25"/>
+      <c r="CV23" s="25"/>
       <c r="CW23" s="13"/>
       <c r="CX23" s="14"/>
       <c r="CY23" s="15"/>
@@ -3316,16 +3343,16 @@
     </row>
     <row r="24" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B24" s="5"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="19"/>
@@ -3423,110 +3450,110 @@
     </row>
     <row r="25" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
-      <c r="C25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28" t="s">
+      <c r="C25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
       <c r="T25" s="13"/>
       <c r="U25" s="14"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
       <c r="AL25" s="13"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="15"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
       <c r="AU25" s="13"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="15"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="24"/>
-      <c r="BC25" s="24"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
       <c r="BD25" s="13"/>
       <c r="BE25" s="14"/>
       <c r="BF25" s="15"/>
-      <c r="BG25" s="24"/>
-      <c r="BH25" s="24"/>
-      <c r="BI25" s="24"/>
-      <c r="BJ25" s="24"/>
-      <c r="BK25" s="24"/>
-      <c r="BL25" s="24"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
       <c r="BM25" s="13"/>
       <c r="BN25" s="14"/>
       <c r="BO25" s="15"/>
-      <c r="BP25" s="24"/>
-      <c r="BQ25" s="24"/>
-      <c r="BR25" s="24"/>
-      <c r="BS25" s="24"/>
-      <c r="BT25" s="24"/>
-      <c r="BU25" s="24"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
+      <c r="BR25" s="25"/>
+      <c r="BS25" s="25"/>
+      <c r="BT25" s="25"/>
+      <c r="BU25" s="25"/>
       <c r="BV25" s="13"/>
       <c r="BW25" s="14"/>
       <c r="BX25" s="15"/>
-      <c r="BY25" s="24"/>
-      <c r="BZ25" s="24"/>
-      <c r="CA25" s="24"/>
-      <c r="CB25" s="24"/>
-      <c r="CC25" s="24"/>
-      <c r="CD25" s="24"/>
+      <c r="BY25" s="25"/>
+      <c r="BZ25" s="25"/>
+      <c r="CA25" s="25"/>
+      <c r="CB25" s="25"/>
+      <c r="CC25" s="25"/>
+      <c r="CD25" s="25"/>
       <c r="CE25" s="13"/>
       <c r="CF25" s="14"/>
       <c r="CG25" s="15"/>
-      <c r="CH25" s="24"/>
-      <c r="CI25" s="24"/>
-      <c r="CJ25" s="24"/>
-      <c r="CK25" s="24"/>
-      <c r="CL25" s="24"/>
-      <c r="CM25" s="24"/>
+      <c r="CH25" s="25"/>
+      <c r="CI25" s="25"/>
+      <c r="CJ25" s="25"/>
+      <c r="CK25" s="25"/>
+      <c r="CL25" s="25"/>
+      <c r="CM25" s="25"/>
       <c r="CN25" s="13"/>
       <c r="CO25" s="14"/>
       <c r="CP25" s="15"/>
-      <c r="CQ25" s="24"/>
-      <c r="CR25" s="24"/>
-      <c r="CS25" s="24"/>
-      <c r="CT25" s="24"/>
-      <c r="CU25" s="24"/>
-      <c r="CV25" s="24"/>
+      <c r="CQ25" s="25"/>
+      <c r="CR25" s="25"/>
+      <c r="CS25" s="25"/>
+      <c r="CT25" s="25"/>
+      <c r="CU25" s="25"/>
+      <c r="CV25" s="25"/>
       <c r="CW25" s="13"/>
       <c r="CX25" s="14"/>
       <c r="CY25" s="15"/>
@@ -3534,106 +3561,106 @@
     </row>
     <row r="26" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
       <c r="T26" s="13"/>
       <c r="U26" s="14"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="14"/>
       <c r="AN26" s="15"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="15"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
       <c r="BD26" s="13"/>
       <c r="BE26" s="14"/>
       <c r="BF26" s="15"/>
-      <c r="BG26" s="24"/>
-      <c r="BH26" s="24"/>
-      <c r="BI26" s="24"/>
-      <c r="BJ26" s="24"/>
-      <c r="BK26" s="24"/>
-      <c r="BL26" s="24"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
       <c r="BM26" s="13"/>
       <c r="BN26" s="14"/>
       <c r="BO26" s="15"/>
-      <c r="BP26" s="24"/>
-      <c r="BQ26" s="24"/>
-      <c r="BR26" s="24"/>
-      <c r="BS26" s="24"/>
-      <c r="BT26" s="24"/>
-      <c r="BU26" s="24"/>
+      <c r="BP26" s="25"/>
+      <c r="BQ26" s="25"/>
+      <c r="BR26" s="25"/>
+      <c r="BS26" s="25"/>
+      <c r="BT26" s="25"/>
+      <c r="BU26" s="25"/>
       <c r="BV26" s="13"/>
       <c r="BW26" s="14"/>
       <c r="BX26" s="15"/>
-      <c r="BY26" s="24"/>
-      <c r="BZ26" s="24"/>
-      <c r="CA26" s="24"/>
-      <c r="CB26" s="24"/>
-      <c r="CC26" s="24"/>
-      <c r="CD26" s="24"/>
+      <c r="BY26" s="25"/>
+      <c r="BZ26" s="25"/>
+      <c r="CA26" s="25"/>
+      <c r="CB26" s="25"/>
+      <c r="CC26" s="25"/>
+      <c r="CD26" s="25"/>
       <c r="CE26" s="13"/>
       <c r="CF26" s="14"/>
       <c r="CG26" s="15"/>
-      <c r="CH26" s="24"/>
-      <c r="CI26" s="24"/>
-      <c r="CJ26" s="24"/>
-      <c r="CK26" s="24"/>
-      <c r="CL26" s="24"/>
-      <c r="CM26" s="24"/>
+      <c r="CH26" s="25"/>
+      <c r="CI26" s="25"/>
+      <c r="CJ26" s="25"/>
+      <c r="CK26" s="25"/>
+      <c r="CL26" s="25"/>
+      <c r="CM26" s="25"/>
       <c r="CN26" s="13"/>
       <c r="CO26" s="14"/>
       <c r="CP26" s="15"/>
-      <c r="CQ26" s="24"/>
-      <c r="CR26" s="24"/>
-      <c r="CS26" s="24"/>
-      <c r="CT26" s="24"/>
-      <c r="CU26" s="24"/>
-      <c r="CV26" s="24"/>
+      <c r="CQ26" s="25"/>
+      <c r="CR26" s="25"/>
+      <c r="CS26" s="25"/>
+      <c r="CT26" s="25"/>
+      <c r="CU26" s="25"/>
+      <c r="CV26" s="25"/>
       <c r="CW26" s="13"/>
       <c r="CX26" s="14"/>
       <c r="CY26" s="15"/>
@@ -3641,16 +3668,16 @@
     </row>
     <row r="27" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
       <c r="K27" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="19"/>
@@ -3749,109 +3776,109 @@
     <row r="28" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
       <c r="C28" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
       <c r="T28" s="13"/>
       <c r="U28" s="14"/>
       <c r="V28" s="15"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="15"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
       <c r="AL28" s="13"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="15"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="14"/>
       <c r="AW28" s="15"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
       <c r="BD28" s="13"/>
       <c r="BE28" s="14"/>
       <c r="BF28" s="15"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="37"/>
-      <c r="BL28" s="37"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
       <c r="BM28" s="13"/>
       <c r="BN28" s="14"/>
       <c r="BO28" s="15"/>
-      <c r="BP28" s="37"/>
-      <c r="BQ28" s="37"/>
-      <c r="BR28" s="37"/>
-      <c r="BS28" s="37"/>
-      <c r="BT28" s="37"/>
-      <c r="BU28" s="37"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
       <c r="BV28" s="13"/>
       <c r="BW28" s="14"/>
       <c r="BX28" s="15"/>
-      <c r="BY28" s="37"/>
-      <c r="BZ28" s="37"/>
-      <c r="CA28" s="37"/>
-      <c r="CB28" s="37"/>
-      <c r="CC28" s="37"/>
-      <c r="CD28" s="37"/>
+      <c r="BY28" s="12"/>
+      <c r="BZ28" s="12"/>
+      <c r="CA28" s="12"/>
+      <c r="CB28" s="12"/>
+      <c r="CC28" s="12"/>
+      <c r="CD28" s="12"/>
       <c r="CE28" s="13"/>
       <c r="CF28" s="14"/>
       <c r="CG28" s="15"/>
-      <c r="CH28" s="37"/>
-      <c r="CI28" s="37"/>
-      <c r="CJ28" s="37"/>
-      <c r="CK28" s="37"/>
-      <c r="CL28" s="37"/>
-      <c r="CM28" s="37"/>
+      <c r="CH28" s="12"/>
+      <c r="CI28" s="12"/>
+      <c r="CJ28" s="12"/>
+      <c r="CK28" s="12"/>
+      <c r="CL28" s="12"/>
+      <c r="CM28" s="12"/>
       <c r="CN28" s="13"/>
       <c r="CO28" s="14"/>
       <c r="CP28" s="15"/>
-      <c r="CQ28" s="37"/>
-      <c r="CR28" s="37"/>
-      <c r="CS28" s="37"/>
-      <c r="CT28" s="37"/>
-      <c r="CU28" s="37"/>
-      <c r="CV28" s="37"/>
+      <c r="CQ28" s="12"/>
+      <c r="CR28" s="12"/>
+      <c r="CS28" s="12"/>
+      <c r="CT28" s="12"/>
+      <c r="CU28" s="12"/>
+      <c r="CV28" s="12"/>
       <c r="CW28" s="13"/>
       <c r="CX28" s="14"/>
       <c r="CY28" s="15"/>
@@ -3864,20 +3891,20 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
       <c r="T29" s="13"/>
       <c r="U29" s="14"/>
       <c r="V29" s="15"/>
@@ -3971,11 +3998,11 @@
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="19"/>
@@ -4073,110 +4100,110 @@
     </row>
     <row r="31" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
-      <c r="C31" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28" t="s">
+      <c r="C31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
       <c r="T31" s="13"/>
       <c r="U31" s="14"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="15"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
       <c r="AL31" s="13"/>
       <c r="AM31" s="14"/>
       <c r="AN31" s="15"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="24"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
       <c r="AU31" s="13"/>
       <c r="AV31" s="14"/>
       <c r="AW31" s="15"/>
-      <c r="AX31" s="24"/>
-      <c r="AY31" s="24"/>
-      <c r="AZ31" s="24"/>
-      <c r="BA31" s="24"/>
-      <c r="BB31" s="24"/>
-      <c r="BC31" s="24"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
       <c r="BD31" s="13"/>
       <c r="BE31" s="14"/>
       <c r="BF31" s="15"/>
-      <c r="BG31" s="24"/>
-      <c r="BH31" s="24"/>
-      <c r="BI31" s="24"/>
-      <c r="BJ31" s="24"/>
-      <c r="BK31" s="24"/>
-      <c r="BL31" s="24"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="25"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="25"/>
       <c r="BM31" s="13"/>
       <c r="BN31" s="14"/>
       <c r="BO31" s="15"/>
-      <c r="BP31" s="24"/>
-      <c r="BQ31" s="24"/>
-      <c r="BR31" s="24"/>
-      <c r="BS31" s="24"/>
-      <c r="BT31" s="24"/>
-      <c r="BU31" s="24"/>
+      <c r="BP31" s="25"/>
+      <c r="BQ31" s="25"/>
+      <c r="BR31" s="25"/>
+      <c r="BS31" s="25"/>
+      <c r="BT31" s="25"/>
+      <c r="BU31" s="25"/>
       <c r="BV31" s="13"/>
       <c r="BW31" s="14"/>
       <c r="BX31" s="15"/>
-      <c r="BY31" s="24"/>
-      <c r="BZ31" s="24"/>
-      <c r="CA31" s="24"/>
-      <c r="CB31" s="24"/>
-      <c r="CC31" s="24"/>
-      <c r="CD31" s="24"/>
+      <c r="BY31" s="25"/>
+      <c r="BZ31" s="25"/>
+      <c r="CA31" s="25"/>
+      <c r="CB31" s="25"/>
+      <c r="CC31" s="25"/>
+      <c r="CD31" s="25"/>
       <c r="CE31" s="13"/>
       <c r="CF31" s="14"/>
       <c r="CG31" s="15"/>
-      <c r="CH31" s="24"/>
-      <c r="CI31" s="24"/>
-      <c r="CJ31" s="24"/>
-      <c r="CK31" s="24"/>
-      <c r="CL31" s="24"/>
-      <c r="CM31" s="24"/>
+      <c r="CH31" s="25"/>
+      <c r="CI31" s="25"/>
+      <c r="CJ31" s="25"/>
+      <c r="CK31" s="25"/>
+      <c r="CL31" s="25"/>
+      <c r="CM31" s="25"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="14"/>
       <c r="CP31" s="15"/>
-      <c r="CQ31" s="24"/>
-      <c r="CR31" s="24"/>
-      <c r="CS31" s="24"/>
-      <c r="CT31" s="24"/>
-      <c r="CU31" s="24"/>
-      <c r="CV31" s="24"/>
+      <c r="CQ31" s="25"/>
+      <c r="CR31" s="25"/>
+      <c r="CS31" s="25"/>
+      <c r="CT31" s="25"/>
+      <c r="CU31" s="25"/>
+      <c r="CV31" s="25"/>
       <c r="CW31" s="13"/>
       <c r="CX31" s="14"/>
       <c r="CY31" s="15"/>
@@ -4184,106 +4211,106 @@
     </row>
     <row r="32" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
       <c r="T32" s="13"/>
       <c r="U32" s="14"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
       <c r="AC32" s="13"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="15"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
       <c r="AL32" s="13"/>
       <c r="AM32" s="14"/>
       <c r="AN32" s="15"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="14"/>
       <c r="AW32" s="15"/>
-      <c r="AX32" s="24"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="24"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24"/>
-      <c r="BC32" s="24"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
       <c r="BD32" s="13"/>
       <c r="BE32" s="14"/>
       <c r="BF32" s="15"/>
-      <c r="BG32" s="24"/>
-      <c r="BH32" s="24"/>
-      <c r="BI32" s="24"/>
-      <c r="BJ32" s="24"/>
-      <c r="BK32" s="24"/>
-      <c r="BL32" s="24"/>
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25"/>
+      <c r="BK32" s="25"/>
+      <c r="BL32" s="25"/>
       <c r="BM32" s="13"/>
       <c r="BN32" s="14"/>
       <c r="BO32" s="15"/>
-      <c r="BP32" s="24"/>
-      <c r="BQ32" s="24"/>
-      <c r="BR32" s="24"/>
-      <c r="BS32" s="24"/>
-      <c r="BT32" s="24"/>
-      <c r="BU32" s="24"/>
+      <c r="BP32" s="25"/>
+      <c r="BQ32" s="25"/>
+      <c r="BR32" s="25"/>
+      <c r="BS32" s="25"/>
+      <c r="BT32" s="25"/>
+      <c r="BU32" s="25"/>
       <c r="BV32" s="13"/>
       <c r="BW32" s="14"/>
       <c r="BX32" s="15"/>
-      <c r="BY32" s="24"/>
-      <c r="BZ32" s="24"/>
-      <c r="CA32" s="24"/>
-      <c r="CB32" s="24"/>
-      <c r="CC32" s="24"/>
-      <c r="CD32" s="24"/>
+      <c r="BY32" s="25"/>
+      <c r="BZ32" s="25"/>
+      <c r="CA32" s="25"/>
+      <c r="CB32" s="25"/>
+      <c r="CC32" s="25"/>
+      <c r="CD32" s="25"/>
       <c r="CE32" s="13"/>
       <c r="CF32" s="14"/>
       <c r="CG32" s="15"/>
-      <c r="CH32" s="24"/>
-      <c r="CI32" s="24"/>
-      <c r="CJ32" s="24"/>
-      <c r="CK32" s="24"/>
-      <c r="CL32" s="24"/>
-      <c r="CM32" s="24"/>
+      <c r="CH32" s="25"/>
+      <c r="CI32" s="25"/>
+      <c r="CJ32" s="25"/>
+      <c r="CK32" s="25"/>
+      <c r="CL32" s="25"/>
+      <c r="CM32" s="25"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="14"/>
       <c r="CP32" s="15"/>
-      <c r="CQ32" s="24"/>
-      <c r="CR32" s="24"/>
-      <c r="CS32" s="24"/>
-      <c r="CT32" s="24"/>
-      <c r="CU32" s="24"/>
-      <c r="CV32" s="24"/>
+      <c r="CQ32" s="25"/>
+      <c r="CR32" s="25"/>
+      <c r="CS32" s="25"/>
+      <c r="CT32" s="25"/>
+      <c r="CU32" s="25"/>
+      <c r="CV32" s="25"/>
       <c r="CW32" s="13"/>
       <c r="CX32" s="14"/>
       <c r="CY32" s="15"/>
@@ -4291,16 +4318,16 @@
     </row>
     <row r="33" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B33" s="5"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="19"/>
@@ -4398,110 +4425,110 @@
     </row>
     <row r="34" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B34" s="5"/>
-      <c r="C34" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28" t="s">
+      <c r="C34" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
       <c r="T34" s="13"/>
       <c r="U34" s="14"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
       <c r="AC34" s="13"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="15"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="24"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
       <c r="AL34" s="13"/>
       <c r="AM34" s="14"/>
       <c r="AN34" s="15"/>
-      <c r="AO34" s="24"/>
-      <c r="AP34" s="24"/>
-      <c r="AQ34" s="24"/>
-      <c r="AR34" s="24"/>
-      <c r="AS34" s="24"/>
-      <c r="AT34" s="24"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="14"/>
       <c r="AW34" s="15"/>
-      <c r="AX34" s="24"/>
-      <c r="AY34" s="24"/>
-      <c r="AZ34" s="24"/>
-      <c r="BA34" s="24"/>
-      <c r="BB34" s="24"/>
-      <c r="BC34" s="24"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="25"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
       <c r="BD34" s="13"/>
       <c r="BE34" s="14"/>
       <c r="BF34" s="15"/>
-      <c r="BG34" s="24"/>
-      <c r="BH34" s="24"/>
-      <c r="BI34" s="24"/>
-      <c r="BJ34" s="24"/>
-      <c r="BK34" s="24"/>
-      <c r="BL34" s="24"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="25"/>
+      <c r="BL34" s="25"/>
       <c r="BM34" s="13"/>
       <c r="BN34" s="14"/>
       <c r="BO34" s="15"/>
-      <c r="BP34" s="24"/>
-      <c r="BQ34" s="24"/>
-      <c r="BR34" s="24"/>
-      <c r="BS34" s="24"/>
-      <c r="BT34" s="24"/>
-      <c r="BU34" s="24"/>
+      <c r="BP34" s="25"/>
+      <c r="BQ34" s="25"/>
+      <c r="BR34" s="25"/>
+      <c r="BS34" s="25"/>
+      <c r="BT34" s="25"/>
+      <c r="BU34" s="25"/>
       <c r="BV34" s="13"/>
       <c r="BW34" s="14"/>
       <c r="BX34" s="15"/>
-      <c r="BY34" s="24"/>
-      <c r="BZ34" s="24"/>
-      <c r="CA34" s="24"/>
-      <c r="CB34" s="24"/>
-      <c r="CC34" s="24"/>
-      <c r="CD34" s="24"/>
+      <c r="BY34" s="25"/>
+      <c r="BZ34" s="25"/>
+      <c r="CA34" s="25"/>
+      <c r="CB34" s="25"/>
+      <c r="CC34" s="25"/>
+      <c r="CD34" s="25"/>
       <c r="CE34" s="13"/>
       <c r="CF34" s="14"/>
       <c r="CG34" s="15"/>
-      <c r="CH34" s="24"/>
-      <c r="CI34" s="24"/>
-      <c r="CJ34" s="24"/>
-      <c r="CK34" s="24"/>
-      <c r="CL34" s="24"/>
-      <c r="CM34" s="24"/>
+      <c r="CH34" s="25"/>
+      <c r="CI34" s="25"/>
+      <c r="CJ34" s="25"/>
+      <c r="CK34" s="25"/>
+      <c r="CL34" s="25"/>
+      <c r="CM34" s="25"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="14"/>
       <c r="CP34" s="15"/>
-      <c r="CQ34" s="24"/>
-      <c r="CR34" s="24"/>
-      <c r="CS34" s="24"/>
-      <c r="CT34" s="24"/>
-      <c r="CU34" s="24"/>
-      <c r="CV34" s="24"/>
+      <c r="CQ34" s="25"/>
+      <c r="CR34" s="25"/>
+      <c r="CS34" s="25"/>
+      <c r="CT34" s="25"/>
+      <c r="CU34" s="25"/>
+      <c r="CV34" s="25"/>
       <c r="CW34" s="13"/>
       <c r="CX34" s="14"/>
       <c r="CY34" s="15"/>
@@ -4509,106 +4536,106 @@
     </row>
     <row r="35" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
       <c r="T35" s="13"/>
       <c r="U35" s="14"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
       <c r="AC35" s="13"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="15"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AK35" s="24"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
       <c r="AL35" s="13"/>
       <c r="AM35" s="14"/>
       <c r="AN35" s="15"/>
-      <c r="AO35" s="24"/>
-      <c r="AP35" s="24"/>
-      <c r="AQ35" s="24"/>
-      <c r="AR35" s="24"/>
-      <c r="AS35" s="24"/>
-      <c r="AT35" s="24"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
+      <c r="AS35" s="25"/>
+      <c r="AT35" s="25"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="14"/>
       <c r="AW35" s="15"/>
-      <c r="AX35" s="24"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
-      <c r="BA35" s="24"/>
-      <c r="BB35" s="24"/>
-      <c r="BC35" s="24"/>
+      <c r="AX35" s="25"/>
+      <c r="AY35" s="25"/>
+      <c r="AZ35" s="25"/>
+      <c r="BA35" s="25"/>
+      <c r="BB35" s="25"/>
+      <c r="BC35" s="25"/>
       <c r="BD35" s="13"/>
       <c r="BE35" s="14"/>
       <c r="BF35" s="15"/>
-      <c r="BG35" s="24"/>
-      <c r="BH35" s="24"/>
-      <c r="BI35" s="24"/>
-      <c r="BJ35" s="24"/>
-      <c r="BK35" s="24"/>
-      <c r="BL35" s="24"/>
+      <c r="BG35" s="25"/>
+      <c r="BH35" s="25"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="25"/>
+      <c r="BK35" s="25"/>
+      <c r="BL35" s="25"/>
       <c r="BM35" s="13"/>
       <c r="BN35" s="14"/>
       <c r="BO35" s="15"/>
-      <c r="BP35" s="24"/>
-      <c r="BQ35" s="24"/>
-      <c r="BR35" s="24"/>
-      <c r="BS35" s="24"/>
-      <c r="BT35" s="24"/>
-      <c r="BU35" s="24"/>
+      <c r="BP35" s="25"/>
+      <c r="BQ35" s="25"/>
+      <c r="BR35" s="25"/>
+      <c r="BS35" s="25"/>
+      <c r="BT35" s="25"/>
+      <c r="BU35" s="25"/>
       <c r="BV35" s="13"/>
       <c r="BW35" s="14"/>
       <c r="BX35" s="15"/>
-      <c r="BY35" s="24"/>
-      <c r="BZ35" s="24"/>
-      <c r="CA35" s="24"/>
-      <c r="CB35" s="24"/>
-      <c r="CC35" s="24"/>
-      <c r="CD35" s="24"/>
+      <c r="BY35" s="25"/>
+      <c r="BZ35" s="25"/>
+      <c r="CA35" s="25"/>
+      <c r="CB35" s="25"/>
+      <c r="CC35" s="25"/>
+      <c r="CD35" s="25"/>
       <c r="CE35" s="13"/>
       <c r="CF35" s="14"/>
       <c r="CG35" s="15"/>
-      <c r="CH35" s="24"/>
-      <c r="CI35" s="24"/>
-      <c r="CJ35" s="24"/>
-      <c r="CK35" s="24"/>
-      <c r="CL35" s="24"/>
-      <c r="CM35" s="24"/>
+      <c r="CH35" s="25"/>
+      <c r="CI35" s="25"/>
+      <c r="CJ35" s="25"/>
+      <c r="CK35" s="25"/>
+      <c r="CL35" s="25"/>
+      <c r="CM35" s="25"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="14"/>
       <c r="CP35" s="15"/>
-      <c r="CQ35" s="24"/>
-      <c r="CR35" s="24"/>
-      <c r="CS35" s="24"/>
-      <c r="CT35" s="24"/>
-      <c r="CU35" s="24"/>
-      <c r="CV35" s="24"/>
+      <c r="CQ35" s="25"/>
+      <c r="CR35" s="25"/>
+      <c r="CS35" s="25"/>
+      <c r="CT35" s="25"/>
+      <c r="CU35" s="25"/>
+      <c r="CV35" s="25"/>
       <c r="CW35" s="13"/>
       <c r="CX35" s="14"/>
       <c r="CY35" s="15"/>
@@ -4616,16 +4643,16 @@
     </row>
     <row r="36" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B36" s="5"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36" s="19"/>
@@ -4724,28 +4751,28 @@
     <row r="37" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B37" s="5"/>
       <c r="C37" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="13"/>
       <c r="U37" s="14"/>
       <c r="V37" s="15"/>
@@ -4839,20 +4866,20 @@
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
       <c r="T38" s="13"/>
       <c r="U38" s="14"/>
       <c r="V38" s="15"/>
@@ -4946,11 +4973,11 @@
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
       <c r="K39" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" s="18"/>
       <c r="M39" s="19"/>
@@ -5048,110 +5075,110 @@
     </row>
     <row r="40" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B40" s="5"/>
-      <c r="C40" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28" t="s">
+      <c r="C40" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
       <c r="T40" s="13"/>
       <c r="U40" s="14"/>
       <c r="V40" s="15"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
       <c r="AC40" s="13"/>
       <c r="AD40" s="14"/>
       <c r="AE40" s="15"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
       <c r="AL40" s="13"/>
       <c r="AM40" s="14"/>
       <c r="AN40" s="15"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
+      <c r="AO40" s="25"/>
+      <c r="AP40" s="25"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="25"/>
+      <c r="AT40" s="25"/>
       <c r="AU40" s="13"/>
       <c r="AV40" s="14"/>
       <c r="AW40" s="15"/>
-      <c r="AX40" s="24"/>
-      <c r="AY40" s="24"/>
-      <c r="AZ40" s="24"/>
-      <c r="BA40" s="24"/>
-      <c r="BB40" s="24"/>
-      <c r="BC40" s="24"/>
+      <c r="AX40" s="25"/>
+      <c r="AY40" s="25"/>
+      <c r="AZ40" s="25"/>
+      <c r="BA40" s="25"/>
+      <c r="BB40" s="25"/>
+      <c r="BC40" s="25"/>
       <c r="BD40" s="13"/>
       <c r="BE40" s="14"/>
       <c r="BF40" s="15"/>
-      <c r="BG40" s="24"/>
-      <c r="BH40" s="24"/>
-      <c r="BI40" s="24"/>
-      <c r="BJ40" s="24"/>
-      <c r="BK40" s="24"/>
-      <c r="BL40" s="24"/>
+      <c r="BG40" s="25"/>
+      <c r="BH40" s="25"/>
+      <c r="BI40" s="25"/>
+      <c r="BJ40" s="25"/>
+      <c r="BK40" s="25"/>
+      <c r="BL40" s="25"/>
       <c r="BM40" s="13"/>
       <c r="BN40" s="14"/>
       <c r="BO40" s="15"/>
-      <c r="BP40" s="24"/>
-      <c r="BQ40" s="24"/>
-      <c r="BR40" s="24"/>
-      <c r="BS40" s="24"/>
-      <c r="BT40" s="24"/>
-      <c r="BU40" s="24"/>
+      <c r="BP40" s="25"/>
+      <c r="BQ40" s="25"/>
+      <c r="BR40" s="25"/>
+      <c r="BS40" s="25"/>
+      <c r="BT40" s="25"/>
+      <c r="BU40" s="25"/>
       <c r="BV40" s="13"/>
       <c r="BW40" s="14"/>
       <c r="BX40" s="15"/>
-      <c r="BY40" s="24"/>
-      <c r="BZ40" s="24"/>
-      <c r="CA40" s="24"/>
-      <c r="CB40" s="24"/>
-      <c r="CC40" s="24"/>
-      <c r="CD40" s="24"/>
+      <c r="BY40" s="25"/>
+      <c r="BZ40" s="25"/>
+      <c r="CA40" s="25"/>
+      <c r="CB40" s="25"/>
+      <c r="CC40" s="25"/>
+      <c r="CD40" s="25"/>
       <c r="CE40" s="13"/>
       <c r="CF40" s="14"/>
       <c r="CG40" s="15"/>
-      <c r="CH40" s="24"/>
-      <c r="CI40" s="24"/>
-      <c r="CJ40" s="24"/>
-      <c r="CK40" s="24"/>
-      <c r="CL40" s="24"/>
-      <c r="CM40" s="24"/>
+      <c r="CH40" s="25"/>
+      <c r="CI40" s="25"/>
+      <c r="CJ40" s="25"/>
+      <c r="CK40" s="25"/>
+      <c r="CL40" s="25"/>
+      <c r="CM40" s="25"/>
       <c r="CN40" s="13"/>
       <c r="CO40" s="14"/>
       <c r="CP40" s="15"/>
-      <c r="CQ40" s="24"/>
-      <c r="CR40" s="24"/>
-      <c r="CS40" s="24"/>
-      <c r="CT40" s="24"/>
-      <c r="CU40" s="24"/>
-      <c r="CV40" s="24"/>
+      <c r="CQ40" s="25"/>
+      <c r="CR40" s="25"/>
+      <c r="CS40" s="25"/>
+      <c r="CT40" s="25"/>
+      <c r="CU40" s="25"/>
+      <c r="CV40" s="25"/>
       <c r="CW40" s="13"/>
       <c r="CX40" s="14"/>
       <c r="CY40" s="15"/>
@@ -5159,106 +5186,106 @@
     </row>
     <row r="41" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B41" s="5"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
       <c r="T41" s="13"/>
       <c r="U41" s="14"/>
       <c r="V41" s="15"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="15"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="24"/>
-      <c r="AH41" s="24"/>
-      <c r="AI41" s="24"/>
-      <c r="AJ41" s="24"/>
-      <c r="AK41" s="24"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
       <c r="AL41" s="13"/>
       <c r="AM41" s="14"/>
       <c r="AN41" s="15"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
-      <c r="AQ41" s="24"/>
-      <c r="AR41" s="24"/>
-      <c r="AS41" s="24"/>
-      <c r="AT41" s="24"/>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="25"/>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="25"/>
+      <c r="AS41" s="25"/>
+      <c r="AT41" s="25"/>
       <c r="AU41" s="13"/>
       <c r="AV41" s="14"/>
       <c r="AW41" s="15"/>
-      <c r="AX41" s="24"/>
-      <c r="AY41" s="24"/>
-      <c r="AZ41" s="24"/>
-      <c r="BA41" s="24"/>
-      <c r="BB41" s="24"/>
-      <c r="BC41" s="24"/>
+      <c r="AX41" s="25"/>
+      <c r="AY41" s="25"/>
+      <c r="AZ41" s="25"/>
+      <c r="BA41" s="25"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="25"/>
       <c r="BD41" s="13"/>
       <c r="BE41" s="14"/>
       <c r="BF41" s="15"/>
-      <c r="BG41" s="24"/>
-      <c r="BH41" s="24"/>
-      <c r="BI41" s="24"/>
-      <c r="BJ41" s="24"/>
-      <c r="BK41" s="24"/>
-      <c r="BL41" s="24"/>
+      <c r="BG41" s="25"/>
+      <c r="BH41" s="25"/>
+      <c r="BI41" s="25"/>
+      <c r="BJ41" s="25"/>
+      <c r="BK41" s="25"/>
+      <c r="BL41" s="25"/>
       <c r="BM41" s="13"/>
       <c r="BN41" s="14"/>
       <c r="BO41" s="15"/>
-      <c r="BP41" s="24"/>
-      <c r="BQ41" s="24"/>
-      <c r="BR41" s="24"/>
-      <c r="BS41" s="24"/>
-      <c r="BT41" s="24"/>
-      <c r="BU41" s="24"/>
+      <c r="BP41" s="25"/>
+      <c r="BQ41" s="25"/>
+      <c r="BR41" s="25"/>
+      <c r="BS41" s="25"/>
+      <c r="BT41" s="25"/>
+      <c r="BU41" s="25"/>
       <c r="BV41" s="13"/>
       <c r="BW41" s="14"/>
       <c r="BX41" s="15"/>
-      <c r="BY41" s="24"/>
-      <c r="BZ41" s="24"/>
-      <c r="CA41" s="24"/>
-      <c r="CB41" s="24"/>
-      <c r="CC41" s="24"/>
-      <c r="CD41" s="24"/>
+      <c r="BY41" s="25"/>
+      <c r="BZ41" s="25"/>
+      <c r="CA41" s="25"/>
+      <c r="CB41" s="25"/>
+      <c r="CC41" s="25"/>
+      <c r="CD41" s="25"/>
       <c r="CE41" s="13"/>
       <c r="CF41" s="14"/>
       <c r="CG41" s="15"/>
-      <c r="CH41" s="24"/>
-      <c r="CI41" s="24"/>
-      <c r="CJ41" s="24"/>
-      <c r="CK41" s="24"/>
-      <c r="CL41" s="24"/>
-      <c r="CM41" s="24"/>
+      <c r="CH41" s="25"/>
+      <c r="CI41" s="25"/>
+      <c r="CJ41" s="25"/>
+      <c r="CK41" s="25"/>
+      <c r="CL41" s="25"/>
+      <c r="CM41" s="25"/>
       <c r="CN41" s="13"/>
       <c r="CO41" s="14"/>
       <c r="CP41" s="15"/>
-      <c r="CQ41" s="24"/>
-      <c r="CR41" s="24"/>
-      <c r="CS41" s="24"/>
-      <c r="CT41" s="24"/>
-      <c r="CU41" s="24"/>
-      <c r="CV41" s="24"/>
+      <c r="CQ41" s="25"/>
+      <c r="CR41" s="25"/>
+      <c r="CS41" s="25"/>
+      <c r="CT41" s="25"/>
+      <c r="CU41" s="25"/>
+      <c r="CV41" s="25"/>
       <c r="CW41" s="13"/>
       <c r="CX41" s="14"/>
       <c r="CY41" s="15"/>
@@ -5266,16 +5293,16 @@
     </row>
     <row r="42" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B42" s="5"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
       <c r="K42" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" s="18"/>
       <c r="M42" s="19"/>
@@ -5374,28 +5401,28 @@
     <row r="43" spans="2:104" x14ac:dyDescent="0.45">
       <c r="B43" s="5"/>
       <c r="C43" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
       <c r="T43" s="13"/>
       <c r="U43" s="14"/>
       <c r="V43" s="15"/>
@@ -5493,16 +5520,16 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="13"/>
       <c r="U44" s="14"/>
       <c r="V44" s="15"/>
@@ -5600,7 +5627,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L45" s="18"/>
       <c r="M45" s="19"/>
@@ -5802,7 +5829,6 @@
       <c r="CZ46" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="869">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:M4"/>
